--- a/excel/service_repor.xlsx
+++ b/excel/service_repor.xlsx
@@ -1509,7 +1509,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>lunes, 29 de abril del 2024</t>
+          <t>martes, 07 de mayo del 2024</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">

--- a/excel/service_repor.xlsx
+++ b/excel/service_repor.xlsx
@@ -1509,7 +1509,7 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>martes, 07 de mayo del 2024</t>
+          <t>miercoles, 08 de mayo del 2024</t>
         </is>
       </c>
       <c r="B2" s="1" t="n">
